--- a/Excel/Práctica/15. Seguridad en Excel (proteger libros y hojas)/Suprimir información personal del libro & cómo protegerlo.xlsx
+++ b/Excel/Práctica/15. Seguridad en Excel (proteger libros y hojas)/Suprimir información personal del libro & cómo protegerlo.xlsx
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -294,6 +294,53 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Ahora, para desbloquear, se debe ir de nuevo a la pestaña </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Revisar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y hacer click en la opción que dice: "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proteger libro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" (de nuevo) e insertar contraseña previamente asignada.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Si se va a la pestaña </t>
     </r>
     <r>
@@ -377,7 +424,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> En caso que queramos limitar la edición y la eliminación de las hojas de nuestro libro Excel, estando en </t>
+      <t xml:space="preserve"> En caso que queramos limitar la edición y la eliminación de las hojas de nuestro libro Excel o no queramos que se vea una pestaña oculta del mismo,... se dirige a </t>
     </r>
     <r>
       <rPr>
@@ -388,7 +435,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>proteger libro</t>
+      <t xml:space="preserve">proteger libro </t>
     </r>
     <r>
       <rPr>
@@ -398,23 +445,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, debe asignar una contraseña para que con ella se proteja la estructura de su libro (y ningún tercero pueda hacer ningún tipo de cambio sobre sus hojas de cálculo).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ahora, para desbloquear, se debe ir de nuevo a la pestaña </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Revisar </t>
+      <t>y</t>
     </r>
     <r>
       <rPr>
@@ -424,28 +455,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>y hacer click en la opción que dice: "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proteger libro</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" (de nuevo) e insertar contraseña previamente asignada.</t>
+      <t xml:space="preserve"> debe asignar una contraseña para que con ella se proteja su estructura (y ningún tercero pueda hacer ningún tipo de cambio sobre sus hojas de cálculo).</t>
     </r>
   </si>
 </sst>
@@ -570,7 +580,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -581,12 +591,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -594,6 +598,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="EstiloNaraja" xfId="1"/>
@@ -633,7 +644,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1448,11 +1458,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2102446576"/>
-        <c:axId val="-2102443216"/>
+        <c:axId val="-2127187376"/>
+        <c:axId val="-2127184016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2102446576"/>
+        <c:axId val="-2127187376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1495,7 +1505,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102443216"/>
+        <c:crossAx val="-2127184016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1503,7 +1513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102443216"/>
+        <c:axId val="-2127184016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1554,7 +1564,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102446576"/>
+        <c:crossAx val="-2127187376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1568,7 +1578,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2353,7 +2362,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFA3F7C1-5034-4D48-B12C-48AEC1F1B139}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CFA3F7C1-5034-4D48-B12C-48AEC1F1B139}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3789,7 +3798,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" showAll="0">
@@ -4433,8 +4442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4498,19 +4507,19 @@
       <c r="E3">
         <v>44094</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -4519,26 +4528,26 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>3100</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>496</v>
       </c>
       <c r="E4">
         <v>44076</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4547,26 +4556,26 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>800</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>128</v>
       </c>
       <c r="E5">
         <v>43941</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4575,26 +4584,26 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>300</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>48</v>
       </c>
       <c r="E6">
         <v>44097</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -4603,10 +4612,10 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>900</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>144</v>
       </c>
       <c r="E7">
@@ -4621,10 +4630,10 @@
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>400</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>64</v>
       </c>
       <c r="E8">
@@ -4871,15 +4880,16 @@
       <c r="E22">
         <v>44127</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="H22" s="13"/>
+      <c r="J22" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -4897,6 +4907,7 @@
       <c r="E23">
         <v>44073</v>
       </c>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4988,19 +4999,19 @@
       <c r="E28">
         <v>44093</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
+      <c r="G28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -5018,17 +5029,17 @@
       <c r="E29">
         <v>44094</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -5046,17 +5057,17 @@
       <c r="E30">
         <v>43860</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -5074,17 +5085,17 @@
       <c r="E31">
         <v>43908</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -5102,17 +5113,17 @@
       <c r="E32">
         <v>43913</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
     </row>
     <row r="33" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -5130,17 +5141,17 @@
       <c r="E33">
         <v>44092</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
     </row>
     <row r="34" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -5260,7 +5271,7 @@
       <c r="E40">
         <v>43940</v>
       </c>
-      <c r="M40" s="10" t="s">
+      <c r="M40" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5348,19 +5359,19 @@
       <c r="E45">
         <v>44183</v>
       </c>
-      <c r="G45" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
+      <c r="G45" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
     </row>
     <row r="46" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -5378,17 +5389,17 @@
       <c r="E46">
         <v>44096</v>
       </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
     </row>
     <row r="47" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -5406,17 +5417,17 @@
       <c r="E47">
         <v>43919</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
     </row>
     <row r="48" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
